--- a/daten/notfallstationen_ch.xlsx
+++ b/daten/notfallstationen_ch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E643DE-C2D0-D946-9379-CBB133E342C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D0685-71B3-F747-BD4D-5910E85B8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-840" yWindow="-23500" windowWidth="33600" windowHeight="21820" tabRatio="678" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="987">
   <si>
     <t>KT</t>
   </si>
@@ -3088,6 +3088,9 @@
   </si>
   <si>
     <t>Ueberlandstrasse 14</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -6565,9 +6568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA83BE4-3DA8-47AC-BDB5-B40FED00D9DB}">
   <dimension ref="A1:EQ129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO13" sqref="AO13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -29949,6 +29952,9 @@
       <c r="F92" t="s">
         <v>941</v>
       </c>
+      <c r="AP92" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="93" spans="1:123">
       <c r="B93" t="s">
@@ -29966,6 +29972,9 @@
       <c r="F93" t="s">
         <v>942</v>
       </c>
+      <c r="AP93" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="94" spans="1:123">
       <c r="B94" t="s">
@@ -29983,6 +29992,9 @@
       <c r="F94" t="s">
         <v>876</v>
       </c>
+      <c r="AP94" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="95" spans="1:123">
       <c r="B95" t="s">
@@ -30000,6 +30012,9 @@
       <c r="F95" t="s">
         <v>887</v>
       </c>
+      <c r="AP95" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="96" spans="1:123">
       <c r="B96" t="s">
@@ -30017,8 +30032,11 @@
       <c r="F96" t="s">
         <v>887</v>
       </c>
+      <c r="AP96" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:42">
       <c r="B97" t="s">
         <v>635</v>
       </c>
@@ -30034,8 +30052,11 @@
       <c r="F97" t="s">
         <v>980</v>
       </c>
+      <c r="AP97" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:42">
       <c r="B98" t="s">
         <v>588</v>
       </c>
@@ -30051,8 +30072,11 @@
       <c r="F98" t="s">
         <v>967</v>
       </c>
+      <c r="AP98" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:42">
       <c r="B99" t="s">
         <v>588</v>
       </c>
@@ -30068,8 +30092,11 @@
       <c r="F99" t="s">
         <v>943</v>
       </c>
+      <c r="AP99" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:42">
       <c r="B100" t="s">
         <v>668</v>
       </c>
@@ -30085,8 +30112,11 @@
       <c r="F100" t="s">
         <v>944</v>
       </c>
+      <c r="AP100" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:42">
       <c r="B101" t="s">
         <v>623</v>
       </c>
@@ -30102,8 +30132,11 @@
       <c r="F101" t="s">
         <v>900</v>
       </c>
+      <c r="AP101" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:42">
       <c r="B102" t="s">
         <v>615</v>
       </c>
@@ -30119,8 +30152,11 @@
       <c r="F102" t="s">
         <v>945</v>
       </c>
+      <c r="AP102" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:42">
       <c r="B103" t="s">
         <v>583</v>
       </c>
@@ -30136,8 +30172,11 @@
       <c r="F103" t="s">
         <v>946</v>
       </c>
+      <c r="AP103" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:42">
       <c r="B104" t="s">
         <v>671</v>
       </c>
@@ -30153,8 +30192,11 @@
       <c r="F104" t="s">
         <v>947</v>
       </c>
+      <c r="AP104" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:42">
       <c r="B105" t="s">
         <v>588</v>
       </c>
@@ -30170,8 +30212,11 @@
       <c r="F105" t="s">
         <v>948</v>
       </c>
+      <c r="AP105" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:42">
       <c r="B106" t="s">
         <v>588</v>
       </c>
@@ -30187,8 +30232,11 @@
       <c r="F106" t="s">
         <v>949</v>
       </c>
+      <c r="AP106" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:42">
       <c r="B107" t="s">
         <v>588</v>
       </c>
@@ -30204,8 +30252,11 @@
       <c r="F107" t="s">
         <v>950</v>
       </c>
+      <c r="AP107" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:42">
       <c r="B108" t="s">
         <v>615</v>
       </c>
@@ -30221,8 +30272,11 @@
       <c r="F108" t="s">
         <v>951</v>
       </c>
+      <c r="AP108" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:42">
       <c r="B109" t="s">
         <v>615</v>
       </c>
@@ -30238,8 +30292,11 @@
       <c r="F109" t="s">
         <v>952</v>
       </c>
+      <c r="AP109" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:42">
       <c r="B110" t="s">
         <v>615</v>
       </c>
@@ -30255,8 +30312,11 @@
       <c r="F110" t="s">
         <v>908</v>
       </c>
+      <c r="AP110" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:42">
       <c r="B111" t="s">
         <v>151</v>
       </c>
@@ -30272,8 +30332,11 @@
       <c r="F111" t="s">
         <v>891</v>
       </c>
+      <c r="AP111" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:42">
       <c r="B112" t="s">
         <v>749</v>
       </c>
@@ -30289,8 +30352,11 @@
       <c r="F112" t="s">
         <v>953</v>
       </c>
+      <c r="AP112" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:42">
       <c r="B113" t="s">
         <v>675</v>
       </c>
@@ -30306,8 +30372,11 @@
       <c r="F113" t="s">
         <v>969</v>
       </c>
+      <c r="AP113" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:42">
       <c r="B114" t="s">
         <v>675</v>
       </c>
@@ -30323,8 +30392,11 @@
       <c r="F114" t="s">
         <v>907</v>
       </c>
+      <c r="AP114" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:42">
       <c r="B115" t="s">
         <v>588</v>
       </c>
@@ -30340,8 +30412,11 @@
       <c r="F115" t="s">
         <v>887</v>
       </c>
+      <c r="AP115" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:42">
       <c r="B116" t="s">
         <v>760</v>
       </c>
@@ -30357,8 +30432,11 @@
       <c r="F116" t="s">
         <v>884</v>
       </c>
+      <c r="AP116" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:42">
       <c r="B117" t="s">
         <v>551</v>
       </c>
@@ -30374,8 +30452,11 @@
       <c r="F117" t="s">
         <v>954</v>
       </c>
+      <c r="AP117" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:42">
       <c r="B118" t="s">
         <v>671</v>
       </c>
@@ -30391,8 +30472,11 @@
       <c r="F118" t="s">
         <v>955</v>
       </c>
+      <c r="AP118" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:42">
       <c r="B119" t="s">
         <v>671</v>
       </c>
@@ -30408,8 +30492,11 @@
       <c r="F119" t="s">
         <v>956</v>
       </c>
+      <c r="AP119" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:42">
       <c r="B120" t="s">
         <v>701</v>
       </c>
@@ -30425,8 +30512,11 @@
       <c r="F120" t="s">
         <v>957</v>
       </c>
+      <c r="AP120" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:42">
       <c r="B121" t="s">
         <v>684</v>
       </c>
@@ -30442,8 +30532,11 @@
       <c r="F121" t="s">
         <v>958</v>
       </c>
+      <c r="AP121" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:42">
       <c r="B122" t="s">
         <v>588</v>
       </c>
@@ -30459,8 +30552,11 @@
       <c r="F122" t="s">
         <v>887</v>
       </c>
+      <c r="AP122" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:42">
       <c r="B123" t="s">
         <v>717</v>
       </c>
@@ -30476,8 +30572,11 @@
       <c r="F123" t="s">
         <v>959</v>
       </c>
+      <c r="AP123" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:42">
       <c r="B124" t="s">
         <v>717</v>
       </c>
@@ -30493,8 +30592,11 @@
       <c r="F124" t="s">
         <v>960</v>
       </c>
+      <c r="AP124" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:42">
       <c r="B125" t="s">
         <v>717</v>
       </c>
@@ -30510,8 +30612,11 @@
       <c r="F125" t="s">
         <v>936</v>
       </c>
+      <c r="AP125" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:42">
       <c r="B126" t="s">
         <v>717</v>
       </c>
@@ -30527,8 +30632,11 @@
       <c r="F126" t="s">
         <v>960</v>
       </c>
+      <c r="AP126" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:42">
       <c r="B127" t="s">
         <v>717</v>
       </c>
@@ -30544,8 +30652,11 @@
       <c r="F127" t="s">
         <v>934</v>
       </c>
+      <c r="AP127" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:42">
       <c r="B128" t="s">
         <v>749</v>
       </c>
@@ -30561,8 +30672,11 @@
       <c r="F128" t="s">
         <v>961</v>
       </c>
+      <c r="AP128" s="16" t="s">
+        <v>986</v>
+      </c>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:42">
       <c r="B129" t="s">
         <v>749</v>
       </c>
@@ -30577,6 +30691,9 @@
       </c>
       <c r="F129" t="s">
         <v>962</v>
+      </c>
+      <c r="AP129" s="16" t="s">
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/daten/notfallstationen_ch.xlsx
+++ b/daten/notfallstationen_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurazanchin/Dropbox/Mac/Desktop/master/daten/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ABE9A5-811D-CE48-A644-B719BBBAF9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F33E246-9606-5448-919C-3828D7188610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="-23500" windowWidth="33600" windowHeight="21820" tabRatio="678" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-840" yWindow="-21100" windowWidth="22180" windowHeight="21100" tabRatio="678" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="966">
   <si>
     <t>KT</t>
   </si>
@@ -2301,9 +2301,6 @@
     <t>MRI, CT, LB, Angio</t>
   </si>
   <si>
-    <t>Via Stefano Franscini 4</t>
-  </si>
-  <si>
     <t>UR</t>
   </si>
   <si>
@@ -2358,12 +2355,6 @@
     <t>Avenue de la Colline 3</t>
   </si>
   <si>
-    <t>Clinique de La Source</t>
-  </si>
-  <si>
-    <t>Avenue Vinet 30</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
@@ -2511,27 +2502,18 @@
     <t>Im Ergel 1</t>
   </si>
   <si>
-    <t>Adelbodenstrasse 27</t>
-  </si>
-  <si>
     <t>Huobmattstrasse 9</t>
   </si>
   <si>
     <t>Spitalstrasse 10</t>
   </si>
   <si>
-    <t>Steig</t>
-  </si>
-  <si>
     <t>Dorfbergstrasse 10</t>
   </si>
   <si>
     <t>Karl Haueter-Strasse 21</t>
   </si>
   <si>
-    <t>Tiefenaustrasse 112</t>
-  </si>
-  <si>
     <t>Eyweg 2</t>
   </si>
   <si>
@@ -2559,12 +2541,6 @@
     <t>Bümplizstrasse 83</t>
   </si>
   <si>
-    <t>Buchserstrasse 30</t>
-  </si>
-  <si>
-    <t>Route de Morgins 10</t>
-  </si>
-  <si>
     <t>Leistungen und Behandlungen (allgemeine Angaben)</t>
   </si>
   <si>
@@ -2631,18 +2607,12 @@
     <t>Inselspital Bern</t>
   </si>
   <si>
-    <t>Spitäler fmi AG, Frutigen</t>
-  </si>
-  <si>
     <t>Spital Wallis - Spitalzentrum Oberwallis (SZO) Martinach</t>
   </si>
   <si>
     <t>Spital Wallis - Spitalzentrum Oberwallis (SZO) Sitten</t>
   </si>
   <si>
-    <t>Klinik Sonnenhof AG</t>
-  </si>
-  <si>
     <t>RSE AG, Langnau</t>
   </si>
   <si>
@@ -2667,18 +2637,12 @@
     <t>STS AG, Zweisimmen</t>
   </si>
   <si>
-    <t>Insel Gruppe AG Münsingen</t>
-  </si>
-  <si>
     <t>Insel Gruppe AG Aarberg</t>
   </si>
   <si>
     <t>Kantonsspital Liestal</t>
   </si>
   <si>
-    <t>Hôpital du Valais - Centre hospitalier du Chablais (CHC)</t>
-  </si>
-  <si>
     <t>Hôpital neuchâtelois, La-Chaux-de-Fonds</t>
   </si>
   <si>
@@ -2688,9 +2652,6 @@
     <t>Salem­Spital</t>
   </si>
   <si>
-    <t>Gesundheitszentrum Fricktal, Laufenburg</t>
-  </si>
-  <si>
     <t>Luzerner Kantonsspital, Sursee</t>
   </si>
   <si>
@@ -2700,12 +2661,6 @@
     <t>soH Spital Dornach</t>
   </si>
   <si>
-    <t>Berit Klinik Wattwil</t>
-  </si>
-  <si>
-    <t>Insel Gruppe AG Tiefenau</t>
-  </si>
-  <si>
     <t>Spital Wallis - Spitalzentrum Oberwallis (SZO) Brig</t>
   </si>
   <si>
@@ -2718,9 +2673,6 @@
     <t>EOC Ospedale Regionale di Bellinzona e Valli</t>
   </si>
   <si>
-    <t>Clinica Santa Chiara SA</t>
-  </si>
-  <si>
     <t>Flin 5</t>
   </si>
   <si>
@@ -2955,9 +2907,6 @@
     <t>Gümligen</t>
   </si>
   <si>
-    <t>Frutigen</t>
-  </si>
-  <si>
     <t>Sitten</t>
   </si>
   <si>
@@ -2979,9 +2928,6 @@
     <t>Zweisimmen</t>
   </si>
   <si>
-    <t>Münsingen</t>
-  </si>
-  <si>
     <t>Aarberg</t>
   </si>
   <si>
@@ -2991,9 +2937,6 @@
     <t>Münchenstein</t>
   </si>
   <si>
-    <t>Monthey</t>
-  </si>
-  <si>
     <t>Laufenburg</t>
   </si>
   <si>
@@ -3006,9 +2949,6 @@
     <t>Dornach</t>
   </si>
   <si>
-    <t>Wattwil</t>
-  </si>
-  <si>
     <t>Mendrisio</t>
   </si>
   <si>
@@ -3051,9 +2991,6 @@
     <t>Avenue Grand-Champsec 80</t>
   </si>
   <si>
-    <t>Krankenhausweg 18</t>
-  </si>
-  <si>
     <t>Avenue de la Fusion 27</t>
   </si>
   <si>
@@ -3090,7 +3027,7 @@
     <t>Ueberlandstrasse 14</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Spital Laufenburg</t>
   </si>
 </sst>
 </file>
@@ -4573,7 +4510,7 @@
         <v>174</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>175</v>
@@ -4623,7 +4560,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>185</v>
@@ -4774,7 +4711,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>513</v>
@@ -4988,7 +4925,7 @@
         <v>509</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>510</v>
@@ -5077,7 +5014,7 @@
     <row r="49" spans="1:4" s="9" customFormat="1">
       <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>269</v>
@@ -5344,16 +5281,16 @@
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1">
       <c r="A69" s="8" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="9" customFormat="1">
@@ -6566,11 +6503,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA83BE4-3DA8-47AC-BDB5-B40FED00D9DB}">
-  <dimension ref="A1:EQ129"/>
+  <dimension ref="A1:EQ121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6580,7 +6517,8 @@
     <col min="4" max="4" width="27.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="41" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="41" width="17.83203125" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="17.83203125" style="16" customWidth="1"/>
     <col min="43" max="147" width="17.83203125" customWidth="1"/>
   </cols>
@@ -6821,10 +6759,10 @@
         <v>71</v>
       </c>
       <c r="CB1" s="5" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="CC1" s="5" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="CD1" s="5" t="s">
         <v>72</v>
@@ -6833,7 +6771,7 @@
         <v>73</v>
       </c>
       <c r="CF1" s="5" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="CG1" s="5" t="s">
         <v>74</v>
@@ -6902,7 +6840,7 @@
         <v>95</v>
       </c>
       <c r="DC1" s="5" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="DD1" s="5" t="s">
         <v>96</v>
@@ -6971,10 +6909,10 @@
         <v>117</v>
       </c>
       <c r="DZ1" s="5" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="EA1" s="5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="EB1" s="5" t="s">
         <v>118</v>
@@ -7042,7 +6980,7 @@
         <v>5737</v>
       </c>
       <c r="F2" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
       <c r="G2" t="s">
         <v>138</v>
@@ -7257,7 +7195,7 @@
         <v>5316</v>
       </c>
       <c r="F3" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="G3" t="s">
         <v>138</v>
@@ -7463,7 +7401,7 @@
         <v>4800</v>
       </c>
       <c r="F4" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="G4" t="s">
         <v>138</v>
@@ -7684,7 +7622,7 @@
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -7917,7 +7855,7 @@
         <v>5630</v>
       </c>
       <c r="F6" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="G6" t="s">
         <v>136</v>
@@ -8144,7 +8082,7 @@
         <v>4310</v>
       </c>
       <c r="F7" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="G7" t="s">
         <v>136</v>
@@ -8359,13 +8297,13 @@
         <v>559</v>
       </c>
       <c r="D8" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E8">
         <v>5404</v>
       </c>
       <c r="F8" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="G8" t="s">
         <v>134</v>
@@ -8598,7 +8536,7 @@
         <v>5000</v>
       </c>
       <c r="F9" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="G9" t="s">
         <v>134</v>
@@ -8831,7 +8769,7 @@
         <v>9050</v>
       </c>
       <c r="F10" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="G10" t="s">
         <v>145</v>
@@ -9028,7 +8966,7 @@
         <v>583</v>
       </c>
       <c r="C11" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="D11" t="s">
         <v>584</v>
@@ -9037,7 +8975,7 @@
         <v>9100</v>
       </c>
       <c r="F11" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="G11" t="s">
         <v>136</v>
@@ -9330,7 +9268,7 @@
         <v>2740</v>
       </c>
       <c r="F12" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G12" t="s">
         <v>145</v>
@@ -9557,7 +9495,7 @@
         <v>3073</v>
       </c>
       <c r="F13" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="G13" t="s">
         <v>138</v>
@@ -9829,7 +9767,7 @@
         <v>2503</v>
       </c>
       <c r="F14" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="G14" t="s">
         <v>136</v>
@@ -10056,7 +9994,7 @@
         <v>4900</v>
       </c>
       <c r="F15" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="G15" t="s">
         <v>136</v>
@@ -10349,7 +10287,7 @@
         <v>3800</v>
       </c>
       <c r="F16" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="G16" t="s">
         <v>134</v>
@@ -10639,7 +10577,7 @@
         <v>3400</v>
       </c>
       <c r="F17" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="G17" t="s">
         <v>134</v>
@@ -10938,7 +10876,7 @@
         <v>3013</v>
       </c>
       <c r="F18" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="G18" t="s">
         <v>134</v>
@@ -11162,7 +11100,7 @@
         <v>588</v>
       </c>
       <c r="C19" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="D19" t="s">
         <v>589</v>
@@ -11171,7 +11109,7 @@
         <v>3010</v>
       </c>
       <c r="F19" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="G19" t="s">
         <v>134</v>
@@ -11464,7 +11402,7 @@
         <v>2502</v>
       </c>
       <c r="F20" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="G20" t="s">
         <v>134</v>
@@ -11763,7 +11701,7 @@
         <v>3600</v>
       </c>
       <c r="F21" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="G21" t="s">
         <v>134</v>
@@ -12050,7 +11988,7 @@
         <v>3012</v>
       </c>
       <c r="F22" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="G22" t="s">
         <v>134</v>
@@ -12283,7 +12221,7 @@
         <v>4410</v>
       </c>
       <c r="F23" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="G23" t="s">
         <v>134</v>
@@ -12582,7 +12520,7 @@
         <v>4058</v>
       </c>
       <c r="F24" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="G24" t="s">
         <v>134</v>
@@ -12809,7 +12747,7 @@
         <v>4031</v>
       </c>
       <c r="F25" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="G25" t="s">
         <v>147</v>
@@ -13036,13 +12974,13 @@
         <v>632</v>
       </c>
       <c r="D26" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="E26">
         <v>1708</v>
       </c>
       <c r="F26" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="G26" t="s">
         <v>134</v>
@@ -13335,13 +13273,13 @@
         <v>641</v>
       </c>
       <c r="D27" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="E27">
         <v>1206</v>
       </c>
       <c r="F27" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="G27" t="s">
         <v>146</v>
@@ -13541,13 +13479,13 @@
         <v>637</v>
       </c>
       <c r="D28" t="s">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="E28">
         <v>1217</v>
       </c>
       <c r="F28" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G28" t="s">
         <v>136</v>
@@ -13768,13 +13706,13 @@
         <v>636</v>
       </c>
       <c r="D29" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="E29">
         <v>1205</v>
       </c>
       <c r="F29" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="G29" t="s">
         <v>147</v>
@@ -14136,7 +14074,7 @@
         <v>8750</v>
       </c>
       <c r="F30" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G30" t="s">
         <v>138</v>
@@ -14429,13 +14367,13 @@
         <v>662</v>
       </c>
       <c r="D31" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="E31">
         <v>7536</v>
       </c>
       <c r="F31" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="G31" t="s">
         <v>145</v>
@@ -14641,7 +14579,7 @@
         <v>7460</v>
       </c>
       <c r="F32" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="G32" t="s">
         <v>145</v>
@@ -14850,13 +14788,13 @@
         <v>660</v>
       </c>
       <c r="D33" t="s">
-        <v>982</v>
+        <v>961</v>
       </c>
       <c r="E33">
         <v>7742</v>
       </c>
       <c r="F33" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="G33" t="s">
         <v>145</v>
@@ -15056,13 +14994,13 @@
         <v>661</v>
       </c>
       <c r="D34" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="E34">
         <v>7606</v>
       </c>
       <c r="F34" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G34" t="s">
         <v>145</v>
@@ -15268,7 +15206,7 @@
         <v>7550</v>
       </c>
       <c r="F35" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="G35" t="s">
         <v>145</v>
@@ -15549,7 +15487,7 @@
         <v>7430</v>
       </c>
       <c r="F36" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="G36" t="s">
         <v>145</v>
@@ -15770,7 +15708,7 @@
         <v>7500</v>
       </c>
       <c r="F37" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="G37" t="s">
         <v>146</v>
@@ -15979,13 +15917,13 @@
         <v>650</v>
       </c>
       <c r="D38" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E38">
         <v>7220</v>
       </c>
       <c r="F38" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="G38" t="s">
         <v>138</v>
@@ -16212,7 +16150,7 @@
         <v>7130</v>
       </c>
       <c r="F39" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="G39" t="s">
         <v>138</v>
@@ -16433,7 +16371,7 @@
         <v>7270</v>
       </c>
       <c r="F40" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="G40" t="s">
         <v>138</v>
@@ -16660,7 +16598,7 @@
         <v>7503</v>
       </c>
       <c r="F41" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="G41" t="s">
         <v>138</v>
@@ -16884,7 +16822,7 @@
         <v>7000</v>
       </c>
       <c r="F42" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="G42" t="s">
         <v>134</v>
@@ -17117,7 +17055,7 @@
         <v>2900</v>
       </c>
       <c r="F43" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G43" t="s">
         <v>136</v>
@@ -17476,7 +17414,7 @@
         <v>6006</v>
       </c>
       <c r="F44" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="G44" t="s">
         <v>134</v>
@@ -17700,7 +17638,7 @@
         <v>671</v>
       </c>
       <c r="C45" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="D45" t="s">
         <v>672</v>
@@ -17709,7 +17647,7 @@
         <v>6004</v>
       </c>
       <c r="F45" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="G45" t="s">
         <v>134</v>
@@ -18008,7 +17946,7 @@
         <v>2000</v>
       </c>
       <c r="F46" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="G46" t="s">
         <v>134</v>
@@ -18292,7 +18230,7 @@
         <v>679</v>
       </c>
       <c r="C47" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D47" t="s">
         <v>680</v>
@@ -18301,7 +18239,7 @@
         <v>6370</v>
       </c>
       <c r="F47" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="G47" t="s">
         <v>138</v>
@@ -18522,7 +18460,7 @@
         <v>6060</v>
       </c>
       <c r="F48" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G48" t="s">
         <v>136</v>
@@ -18749,7 +18687,7 @@
         <v>9244</v>
       </c>
       <c r="F49" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="G49" t="s">
         <v>146</v>
@@ -18955,7 +18893,7 @@
         <v>8730</v>
       </c>
       <c r="F50" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="G50" t="s">
         <v>138</v>
@@ -19188,7 +19126,7 @@
         <v>9016</v>
       </c>
       <c r="F51" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="G51" t="s">
         <v>138</v>
@@ -19415,7 +19353,7 @@
         <v>9500</v>
       </c>
       <c r="F52" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="G52" t="s">
         <v>136</v>
@@ -19699,7 +19637,7 @@
         <v>9445</v>
       </c>
       <c r="F53" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G53" t="s">
         <v>134</v>
@@ -19932,7 +19870,7 @@
         <v>9007</v>
       </c>
       <c r="F54" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="G54" t="s">
         <v>134</v>
@@ -20165,7 +20103,7 @@
         <v>8208</v>
       </c>
       <c r="F55" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="G55" t="s">
         <v>134</v>
@@ -20524,7 +20462,7 @@
         <v>4500</v>
       </c>
       <c r="F56" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="G56" t="s">
         <v>134</v>
@@ -20823,7 +20761,7 @@
         <v>8840</v>
       </c>
       <c r="F57" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="G57" t="s">
         <v>138</v>
@@ -21038,7 +20976,7 @@
         <v>6430</v>
       </c>
       <c r="F58" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="G58" t="s">
         <v>136</v>
@@ -21325,7 +21263,7 @@
         <v>8853</v>
       </c>
       <c r="F59" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="G59" t="s">
         <v>136</v>
@@ -21558,7 +21496,7 @@
         <v>8280</v>
       </c>
       <c r="F60" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="G60" t="s">
         <v>146</v>
@@ -21773,7 +21711,7 @@
         <v>8501</v>
       </c>
       <c r="F61" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="G61" t="s">
         <v>134</v>
@@ -22006,7 +21944,7 @@
         <v>6900</v>
       </c>
       <c r="F62" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="G62" t="s">
         <v>136</v>
@@ -22233,7 +22171,7 @@
         <v>6500</v>
       </c>
       <c r="F63" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="G63" t="s">
         <v>134</v>
@@ -22520,10 +22458,10 @@
         <v>2021</v>
       </c>
       <c r="B64" t="s">
+        <v>723</v>
+      </c>
+      <c r="C64" t="s">
         <v>724</v>
-      </c>
-      <c r="C64" t="s">
-        <v>725</v>
       </c>
       <c r="D64" t="s">
         <v>576</v>
@@ -22532,7 +22470,7 @@
         <v>6460</v>
       </c>
       <c r="F64" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="G64" t="s">
         <v>138</v>
@@ -22753,19 +22691,19 @@
         <v>2021</v>
       </c>
       <c r="B65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C65" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D65" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E65">
         <v>1660</v>
       </c>
       <c r="F65" t="s">
-        <v>977</v>
+        <v>956</v>
       </c>
       <c r="G65" t="s">
         <v>145</v>
@@ -23037,19 +22975,19 @@
         <v>2021</v>
       </c>
       <c r="B66" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C66" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D66" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E66">
         <v>1347</v>
       </c>
       <c r="F66" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="G66" t="s">
         <v>138</v>
@@ -23070,7 +23008,7 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="N66" t="s">
         <v>558</v>
@@ -23246,19 +23184,19 @@
         <v>2021</v>
       </c>
       <c r="B67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C67" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D67" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E67">
         <v>1450</v>
       </c>
       <c r="F67" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="G67" t="s">
         <v>145</v>
@@ -23503,19 +23441,19 @@
         <v>2021</v>
       </c>
       <c r="B68" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C68" t="s">
+        <v>735</v>
+      </c>
+      <c r="D68" t="s">
         <v>736</v>
-      </c>
-      <c r="D68" t="s">
-        <v>737</v>
       </c>
       <c r="E68">
         <v>1260</v>
       </c>
       <c r="F68" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G68" t="s">
         <v>136</v>
@@ -23793,19 +23731,19 @@
         <v>2021</v>
       </c>
       <c r="B69" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C69" t="s">
+        <v>739</v>
+      </c>
+      <c r="D69" t="s">
         <v>740</v>
-      </c>
-      <c r="D69" t="s">
-        <v>741</v>
       </c>
       <c r="E69">
         <v>1530</v>
       </c>
       <c r="F69" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G69" t="s">
         <v>138</v>
@@ -24086,19 +24024,19 @@
         <v>2021</v>
       </c>
       <c r="B70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C70" t="s">
+        <v>737</v>
+      </c>
+      <c r="D70" t="s">
         <v>738</v>
-      </c>
-      <c r="D70" t="s">
-        <v>739</v>
       </c>
       <c r="E70">
         <v>1006</v>
       </c>
       <c r="F70" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G70" t="s">
         <v>136</v>
@@ -24319,19 +24257,19 @@
         <v>2021</v>
       </c>
       <c r="B71" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C71" t="s">
+        <v>731</v>
+      </c>
+      <c r="D71" t="s">
         <v>732</v>
-      </c>
-      <c r="D71" t="s">
-        <v>733</v>
       </c>
       <c r="E71">
         <v>1110</v>
       </c>
       <c r="F71" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="G71" t="s">
         <v>134</v>
@@ -24615,19 +24553,19 @@
         <v>2021</v>
       </c>
       <c r="B72" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C72" t="s">
+        <v>733</v>
+      </c>
+      <c r="D72" t="s">
         <v>734</v>
-      </c>
-      <c r="D72" t="s">
-        <v>735</v>
       </c>
       <c r="E72">
         <v>1400</v>
       </c>
       <c r="F72" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="G72" t="s">
         <v>134</v>
@@ -24968,19 +24906,19 @@
         <v>2021</v>
       </c>
       <c r="B73" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C73" t="s">
+        <v>728</v>
+      </c>
+      <c r="D73" t="s">
         <v>729</v>
-      </c>
-      <c r="D73" t="s">
-        <v>730</v>
       </c>
       <c r="E73">
         <v>1847</v>
       </c>
       <c r="F73" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="G73" t="s">
         <v>134</v>
@@ -25001,7 +24939,7 @@
         <v>6</v>
       </c>
       <c r="M73" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N73" t="s">
         <v>558</v>
@@ -25255,19 +25193,19 @@
         <v>2021</v>
       </c>
       <c r="B74" t="s">
+        <v>725</v>
+      </c>
+      <c r="C74" t="s">
         <v>726</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>727</v>
-      </c>
-      <c r="D74" t="s">
-        <v>728</v>
       </c>
       <c r="E74">
         <v>1011</v>
       </c>
       <c r="F74" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G74" t="s">
         <v>147</v>
@@ -25614,19 +25552,19 @@
         <v>2021</v>
       </c>
       <c r="B75" t="s">
+        <v>746</v>
+      </c>
+      <c r="C75" t="s">
         <v>749</v>
       </c>
-      <c r="C75" t="s">
-        <v>752</v>
-      </c>
       <c r="D75" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E75">
         <v>3930</v>
       </c>
       <c r="F75" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="G75" t="s">
         <v>134</v>
@@ -25647,7 +25585,7 @@
         <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="N75" t="s">
         <v>558</v>
@@ -25973,19 +25911,19 @@
         <v>2021</v>
       </c>
       <c r="B76" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C76" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D76" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E76">
         <v>1950</v>
       </c>
       <c r="F76" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="G76" t="s">
         <v>134</v>
@@ -26338,19 +26276,19 @@
         <v>2021</v>
       </c>
       <c r="B77" t="s">
+        <v>752</v>
+      </c>
+      <c r="C77" t="s">
         <v>755</v>
       </c>
-      <c r="C77" t="s">
-        <v>758</v>
-      </c>
       <c r="D77" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="E77">
         <v>6330</v>
       </c>
       <c r="F77" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="G77" t="s">
         <v>138</v>
@@ -26559,19 +26497,19 @@
         <v>2021</v>
       </c>
       <c r="B78" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C78" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D78" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E78">
         <v>6340</v>
       </c>
       <c r="F78" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="G78" t="s">
         <v>134</v>
@@ -26592,7 +26530,7 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="N78" t="s">
         <v>558</v>
@@ -26792,19 +26730,19 @@
         <v>2021</v>
       </c>
       <c r="B79" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C79" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D79" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E79">
         <v>8910</v>
       </c>
       <c r="F79" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="G79" t="s">
         <v>138</v>
@@ -27073,19 +27011,19 @@
         <v>2021</v>
       </c>
       <c r="B80" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C80" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D80" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E80">
         <v>8620</v>
       </c>
       <c r="F80" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="G80" t="s">
         <v>134</v>
@@ -27106,7 +27044,7 @@
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="N80" t="s">
         <v>558</v>
@@ -27306,19 +27244,19 @@
         <v>2021</v>
       </c>
       <c r="B81" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C81" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D81" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E81">
         <v>8810</v>
       </c>
       <c r="F81" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="G81" t="s">
         <v>134</v>
@@ -27533,19 +27471,19 @@
         <v>2021</v>
       </c>
       <c r="B82" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C82" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D82" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E82">
         <v>8708</v>
       </c>
       <c r="F82" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G82" t="s">
         <v>136</v>
@@ -27748,19 +27686,19 @@
         <v>2021</v>
       </c>
       <c r="B83" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C83" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D83" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E83">
         <v>8037</v>
       </c>
       <c r="F83" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G83" t="s">
         <v>134</v>
@@ -27781,7 +27719,7 @@
         <v>2</v>
       </c>
       <c r="M83" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="N83" t="s">
         <v>558</v>
@@ -27981,19 +27919,19 @@
         <v>2021</v>
       </c>
       <c r="B84" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C84" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D84" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E84">
         <v>8125</v>
       </c>
       <c r="F84" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="G84" t="s">
         <v>134</v>
@@ -28214,19 +28152,19 @@
         <v>2021</v>
       </c>
       <c r="B85" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C85" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D85" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E85">
         <v>8180</v>
       </c>
       <c r="F85" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="G85" t="s">
         <v>134</v>
@@ -28247,7 +28185,7 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="N85" t="s">
         <v>558</v>
@@ -28435,19 +28373,19 @@
         <v>2021</v>
       </c>
       <c r="B86" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C86" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D86" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E86">
         <v>8610</v>
       </c>
       <c r="F86" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="G86" t="s">
         <v>134</v>
@@ -28656,19 +28594,19 @@
         <v>2021</v>
       </c>
       <c r="B87" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C87" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D87" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E87">
         <v>8952</v>
       </c>
       <c r="F87" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="G87" t="s">
         <v>134</v>
@@ -28883,19 +28821,19 @@
         <v>2021</v>
       </c>
       <c r="B88" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C88" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D88" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E88">
         <v>8008</v>
       </c>
       <c r="F88" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G88" t="s">
         <v>134</v>
@@ -29116,19 +29054,19 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C89" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D89" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E89">
         <v>8063</v>
       </c>
       <c r="F89" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G89" t="s">
         <v>134</v>
@@ -29149,7 +29087,7 @@
         <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="N89" t="s">
         <v>558</v>
@@ -29343,19 +29281,19 @@
         <v>2021</v>
       </c>
       <c r="B90" t="s">
+        <v>757</v>
+      </c>
+      <c r="C90" t="s">
         <v>760</v>
       </c>
-      <c r="C90" t="s">
-        <v>763</v>
-      </c>
       <c r="D90" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E90">
         <v>8400</v>
       </c>
       <c r="F90" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G90" t="s">
         <v>134</v>
@@ -29642,19 +29580,19 @@
         <v>2021</v>
       </c>
       <c r="B91" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C91" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D91" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E91">
         <v>8091</v>
       </c>
       <c r="F91" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G91" t="s">
         <v>147</v>
@@ -29941,19 +29879,19 @@
         <v>551</v>
       </c>
       <c r="C92" t="s">
-        <v>852</v>
+        <v>965</v>
       </c>
       <c r="D92" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E92">
         <v>5080</v>
       </c>
       <c r="F92" t="s">
-        <v>954</v>
-      </c>
-      <c r="AP92" s="16" t="s">
-        <v>986</v>
+        <v>935</v>
+      </c>
+      <c r="AP92" s="16">
+        <v>950</v>
       </c>
     </row>
     <row r="93" spans="1:100">
@@ -29961,7 +29899,7 @@
         <v>583</v>
       </c>
       <c r="C93" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D93" t="s">
         <v>587</v>
@@ -29970,10 +29908,10 @@
         <v>9410</v>
       </c>
       <c r="F93" t="s">
-        <v>946</v>
-      </c>
-      <c r="AP93" s="16" t="s">
-        <v>986</v>
+        <v>929</v>
+      </c>
+      <c r="AP93" s="16">
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:100">
@@ -29981,19 +29919,19 @@
         <v>588</v>
       </c>
       <c r="C94" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="D94" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="E94">
-        <v>3714</v>
+        <v>3018</v>
       </c>
       <c r="F94" t="s">
-        <v>941</v>
-      </c>
-      <c r="AP94" s="16" t="s">
-        <v>986</v>
+        <v>871</v>
+      </c>
+      <c r="AP94" s="16">
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:100">
@@ -30001,19 +29939,19 @@
         <v>588</v>
       </c>
       <c r="C95" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="D95" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="E95">
-        <v>3006</v>
+        <v>3550</v>
       </c>
       <c r="F95" t="s">
-        <v>887</v>
-      </c>
-      <c r="AP95" s="16" t="s">
-        <v>986</v>
+        <v>947</v>
+      </c>
+      <c r="AP95" s="16">
+        <v>1059</v>
       </c>
     </row>
     <row r="96" spans="1:100">
@@ -30021,19 +29959,19 @@
         <v>588</v>
       </c>
       <c r="C96" t="s">
-        <v>807</v>
+        <v>828</v>
       </c>
       <c r="D96" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="E96">
-        <v>3018</v>
+        <v>3132</v>
       </c>
       <c r="F96" t="s">
-        <v>887</v>
-      </c>
-      <c r="AP96" s="16" t="s">
-        <v>986</v>
+        <v>926</v>
+      </c>
+      <c r="AP96" s="16">
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="2:42">
@@ -30041,19 +29979,19 @@
         <v>588</v>
       </c>
       <c r="C97" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D97" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E97">
-        <v>3550</v>
+        <v>3770</v>
       </c>
       <c r="F97" t="s">
-        <v>967</v>
-      </c>
-      <c r="AP97" s="16" t="s">
-        <v>986</v>
+        <v>931</v>
+      </c>
+      <c r="AP97" s="16">
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="2:42">
@@ -30061,19 +29999,19 @@
         <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D98" t="s">
-        <v>800</v>
+        <v>849</v>
       </c>
       <c r="E98">
-        <v>3132</v>
+        <v>3270</v>
       </c>
       <c r="F98" t="s">
-        <v>943</v>
-      </c>
-      <c r="AP98" s="16" t="s">
-        <v>986</v>
+        <v>932</v>
+      </c>
+      <c r="AP98" s="16">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="2:42">
@@ -30081,619 +30019,459 @@
         <v>588</v>
       </c>
       <c r="C99" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D99" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E99">
-        <v>3770</v>
+        <v>3013</v>
       </c>
       <c r="F99" t="s">
-        <v>948</v>
-      </c>
-      <c r="AP99" s="16" t="s">
-        <v>986</v>
+        <v>871</v>
+      </c>
+      <c r="AP99" s="16">
+        <v>1289</v>
       </c>
     </row>
     <row r="100" spans="2:42">
       <c r="B100" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C100" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="D100" t="s">
-        <v>973</v>
+        <v>848</v>
       </c>
       <c r="E100">
-        <v>3110</v>
+        <v>4101</v>
       </c>
       <c r="F100" t="s">
-        <v>949</v>
-      </c>
-      <c r="AP100" s="16" t="s">
-        <v>986</v>
+        <v>928</v>
+      </c>
+      <c r="AP100" s="16">
+        <v>1500</v>
       </c>
     </row>
     <row r="101" spans="2:42">
       <c r="B101" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C101" t="s">
-        <v>846</v>
+        <v>619</v>
       </c>
       <c r="D101" t="s">
-        <v>865</v>
+        <v>620</v>
       </c>
       <c r="E101">
-        <v>3270</v>
+        <v>4144</v>
       </c>
       <c r="F101" t="s">
-        <v>950</v>
-      </c>
-      <c r="AP101" s="16" t="s">
-        <v>986</v>
+        <v>933</v>
+      </c>
+      <c r="AP101" s="16">
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="2:42">
       <c r="B102" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C102" t="s">
-        <v>851</v>
+        <v>621</v>
       </c>
       <c r="D102" t="s">
-        <v>806</v>
+        <v>622</v>
       </c>
       <c r="E102">
-        <v>3013</v>
+        <v>4142</v>
       </c>
       <c r="F102" t="s">
-        <v>887</v>
-      </c>
-      <c r="AP102" s="16" t="s">
-        <v>986</v>
+        <v>934</v>
+      </c>
+      <c r="AP102" s="16">
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="2:42">
       <c r="B103" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C103" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="D103" t="s">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="E103">
-        <v>3004</v>
+        <v>4410</v>
       </c>
       <c r="F103" t="s">
-        <v>887</v>
-      </c>
-      <c r="AP103" s="16" t="s">
-        <v>986</v>
+        <v>892</v>
+      </c>
+      <c r="AP103" s="16">
+        <v>1800</v>
       </c>
     </row>
     <row r="104" spans="2:42">
       <c r="B104" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="C104" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="D104" t="s">
-        <v>864</v>
+        <v>630</v>
       </c>
       <c r="E104">
-        <v>4101</v>
+        <v>4052</v>
       </c>
       <c r="F104" t="s">
-        <v>945</v>
-      </c>
-      <c r="AP104" s="16" t="s">
-        <v>986</v>
+        <v>884</v>
+      </c>
+      <c r="AP104" s="16">
+        <v>8000</v>
       </c>
     </row>
     <row r="105" spans="2:42">
       <c r="B105" t="s">
-        <v>615</v>
+        <v>151</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="D105" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="E105">
-        <v>4144</v>
+        <v>1700</v>
       </c>
       <c r="F105" t="s">
-        <v>951</v>
-      </c>
-      <c r="AP105" s="16" t="s">
-        <v>986</v>
+        <v>875</v>
+      </c>
+      <c r="AP105" s="16">
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="2:42">
       <c r="B106" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="C106" t="s">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="D106" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="E106">
-        <v>4142</v>
+        <v>1224</v>
       </c>
       <c r="F106" t="s">
-        <v>952</v>
-      </c>
-      <c r="AP106" s="16" t="s">
-        <v>986</v>
+        <v>959</v>
+      </c>
+      <c r="AP106" s="16">
+        <v>690</v>
       </c>
     </row>
     <row r="107" spans="2:42">
       <c r="B107" t="s">
-        <v>615</v>
+        <v>668</v>
       </c>
       <c r="C107" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="D107" t="s">
-        <v>866</v>
+        <v>962</v>
       </c>
       <c r="E107">
-        <v>4410</v>
+        <v>2800</v>
       </c>
       <c r="F107" t="s">
-        <v>908</v>
-      </c>
-      <c r="AP107" s="16" t="s">
-        <v>986</v>
+        <v>927</v>
+      </c>
+      <c r="AP107" s="16">
+        <v>1850</v>
       </c>
     </row>
     <row r="108" spans="2:42">
       <c r="B108" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="C108" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D108" t="s">
-        <v>630</v>
+        <v>790</v>
       </c>
       <c r="E108">
-        <v>4052</v>
+        <v>6045</v>
       </c>
       <c r="F108" t="s">
-        <v>900</v>
-      </c>
-      <c r="AP108" s="16" t="s">
-        <v>986</v>
+        <v>930</v>
+      </c>
+      <c r="AP108" s="16">
+        <v>1221</v>
       </c>
     </row>
     <row r="109" spans="2:42">
       <c r="B109" t="s">
-        <v>151</v>
+        <v>671</v>
       </c>
       <c r="C109" t="s">
-        <v>633</v>
+        <v>840</v>
       </c>
       <c r="D109" t="s">
-        <v>634</v>
+        <v>795</v>
       </c>
       <c r="E109">
-        <v>1700</v>
+        <v>6210</v>
       </c>
       <c r="F109" t="s">
-        <v>891</v>
-      </c>
-      <c r="AP109" s="16" t="s">
-        <v>986</v>
+        <v>936</v>
+      </c>
+      <c r="AP109" s="16">
+        <v>5000</v>
       </c>
     </row>
     <row r="110" spans="2:42">
       <c r="B110" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="C110" t="s">
-        <v>638</v>
+        <v>841</v>
       </c>
       <c r="D110" t="s">
-        <v>639</v>
+        <v>854</v>
       </c>
       <c r="E110">
-        <v>1224</v>
+        <v>6110</v>
       </c>
       <c r="F110" t="s">
-        <v>980</v>
-      </c>
-      <c r="AP110" s="16" t="s">
-        <v>986</v>
+        <v>937</v>
+      </c>
+      <c r="AP110" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="111" spans="2:42">
       <c r="B111" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="C111" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D111" t="s">
-        <v>983</v>
+        <v>851</v>
       </c>
       <c r="E111">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="F111" t="s">
-        <v>944</v>
-      </c>
-      <c r="AP111" s="16" t="s">
-        <v>986</v>
+        <v>949</v>
+      </c>
+      <c r="AP111" s="16">
+        <v>1900</v>
       </c>
     </row>
     <row r="112" spans="2:42">
       <c r="B112" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C112" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D112" t="s">
-        <v>794</v>
+        <v>852</v>
       </c>
       <c r="E112">
-        <v>6045</v>
+        <v>2000</v>
       </c>
       <c r="F112" t="s">
-        <v>947</v>
-      </c>
-      <c r="AP112" s="16" t="s">
-        <v>986</v>
+        <v>891</v>
+      </c>
+      <c r="AP112" s="16">
+        <v>800</v>
       </c>
     </row>
     <row r="113" spans="2:42">
       <c r="B113" t="s">
-        <v>671</v>
+        <v>701</v>
       </c>
       <c r="C113" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D113" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E113">
-        <v>6210</v>
+        <v>4143</v>
       </c>
       <c r="F113" t="s">
-        <v>955</v>
-      </c>
-      <c r="AP113" s="16" t="s">
-        <v>986</v>
+        <v>938</v>
+      </c>
+      <c r="AP113" s="16">
+        <v>3800</v>
       </c>
     </row>
     <row r="114" spans="2:42">
       <c r="B114" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
       <c r="C114" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="D114" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="E114">
-        <v>6110</v>
+        <v>6850</v>
       </c>
       <c r="F114" t="s">
-        <v>956</v>
-      </c>
-      <c r="AP114" s="16" t="s">
-        <v>986</v>
+        <v>939</v>
+      </c>
+      <c r="AP114" s="16">
+        <v>1001</v>
       </c>
     </row>
     <row r="115" spans="2:42">
       <c r="B115" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="C115" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D115" t="s">
-        <v>867</v>
+        <v>963</v>
       </c>
       <c r="E115">
-        <v>2300</v>
+        <v>6600</v>
       </c>
       <c r="F115" t="s">
-        <v>969</v>
-      </c>
-      <c r="AP115" s="16" t="s">
-        <v>986</v>
+        <v>940</v>
+      </c>
+      <c r="AP115" s="16">
+        <v>1053</v>
       </c>
     </row>
     <row r="116" spans="2:42">
       <c r="B116" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="C116" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="D116" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="E116">
+        <v>6500</v>
+      </c>
+      <c r="F116" t="s">
+        <v>920</v>
+      </c>
+      <c r="AP116" s="16">
         <v>2000</v>
-      </c>
-      <c r="F116" t="s">
-        <v>907</v>
-      </c>
-      <c r="AP116" s="16" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="117" spans="2:42">
       <c r="B117" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
       <c r="C117" t="s">
-        <v>856</v>
+        <v>797</v>
       </c>
       <c r="D117" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E117">
-        <v>9630</v>
+        <v>6900</v>
       </c>
       <c r="F117" t="s">
-        <v>958</v>
-      </c>
-      <c r="AP117" s="16" t="s">
-        <v>986</v>
+        <v>918</v>
+      </c>
+      <c r="AP117" s="16">
+        <v>1000</v>
       </c>
     </row>
     <row r="118" spans="2:42">
       <c r="B118" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="C118" t="s">
-        <v>855</v>
+        <v>826</v>
       </c>
       <c r="D118" t="s">
-        <v>802</v>
+        <v>952</v>
       </c>
       <c r="E118">
-        <v>4143</v>
+        <v>1951</v>
       </c>
       <c r="F118" t="s">
-        <v>957</v>
-      </c>
-      <c r="AP118" s="16" t="s">
-        <v>986</v>
+        <v>925</v>
+      </c>
+      <c r="AP118" s="16">
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="2:42">
       <c r="B119" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="C119" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="D119" t="s">
-        <v>871</v>
+        <v>953</v>
       </c>
       <c r="E119">
-        <v>6850</v>
+        <v>1920</v>
       </c>
       <c r="F119" t="s">
-        <v>959</v>
-      </c>
-      <c r="AP119" s="16" t="s">
-        <v>986</v>
+        <v>941</v>
+      </c>
+      <c r="AP119" s="16">
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="2:42">
       <c r="B120" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="C120" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="D120" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="E120">
-        <v>6600</v>
+        <v>3900</v>
       </c>
       <c r="F120" t="s">
-        <v>960</v>
-      </c>
-      <c r="AP120" s="16" t="s">
-        <v>986</v>
+        <v>942</v>
+      </c>
+      <c r="AP120" s="16">
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="2:42">
       <c r="B121" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="C121" t="s">
-        <v>861</v>
+        <v>785</v>
       </c>
       <c r="D121" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="E121">
-        <v>6500</v>
+        <v>8002</v>
       </c>
       <c r="F121" t="s">
-        <v>936</v>
-      </c>
-      <c r="AP121" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="122" spans="2:42">
-      <c r="B122" t="s">
-        <v>717</v>
-      </c>
-      <c r="C122" t="s">
-        <v>862</v>
-      </c>
-      <c r="D122" t="s">
-        <v>723</v>
-      </c>
-      <c r="E122">
-        <v>6600</v>
-      </c>
-      <c r="F122" t="s">
-        <v>960</v>
-      </c>
-      <c r="AP122" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="123" spans="2:42">
-      <c r="B123" t="s">
-        <v>717</v>
-      </c>
-      <c r="C123" t="s">
-        <v>803</v>
-      </c>
-      <c r="D123" t="s">
-        <v>804</v>
-      </c>
-      <c r="E123">
-        <v>6900</v>
-      </c>
-      <c r="F123" t="s">
-        <v>934</v>
-      </c>
-      <c r="AP123" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="124" spans="2:42">
-      <c r="B124" t="s">
-        <v>726</v>
-      </c>
-      <c r="C124" t="s">
-        <v>742</v>
-      </c>
-      <c r="D124" t="s">
-        <v>743</v>
-      </c>
-      <c r="E124">
-        <v>1004</v>
-      </c>
-      <c r="F124" t="s">
-        <v>876</v>
-      </c>
-      <c r="AP124" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="125" spans="2:42">
-      <c r="B125" t="s">
-        <v>749</v>
-      </c>
-      <c r="C125" t="s">
-        <v>835</v>
-      </c>
-      <c r="D125" t="s">
-        <v>972</v>
-      </c>
-      <c r="E125">
-        <v>1951</v>
-      </c>
-      <c r="F125" t="s">
-        <v>942</v>
-      </c>
-      <c r="AP125" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="126" spans="2:42">
-      <c r="B126" t="s">
-        <v>749</v>
-      </c>
-      <c r="C126" t="s">
-        <v>848</v>
-      </c>
-      <c r="D126" t="s">
-        <v>810</v>
-      </c>
-      <c r="E126">
-        <v>1870</v>
-      </c>
-      <c r="F126" t="s">
-        <v>953</v>
-      </c>
-      <c r="AP126" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="127" spans="2:42">
-      <c r="B127" t="s">
-        <v>749</v>
-      </c>
-      <c r="C127" t="s">
-        <v>834</v>
-      </c>
-      <c r="D127" t="s">
-        <v>974</v>
-      </c>
-      <c r="E127">
-        <v>1920</v>
-      </c>
-      <c r="F127" t="s">
-        <v>961</v>
-      </c>
-      <c r="AP127" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="128" spans="2:42">
-      <c r="B128" t="s">
-        <v>749</v>
-      </c>
-      <c r="C128" t="s">
-        <v>858</v>
-      </c>
-      <c r="D128" t="s">
-        <v>985</v>
-      </c>
-      <c r="E128">
-        <v>3900</v>
-      </c>
-      <c r="F128" t="s">
-        <v>962</v>
-      </c>
-      <c r="AP128" s="16" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="129" spans="2:42">
-      <c r="B129" t="s">
-        <v>760</v>
-      </c>
-      <c r="C129" t="s">
-        <v>788</v>
-      </c>
-      <c r="D129" t="s">
-        <v>789</v>
-      </c>
-      <c r="E129">
-        <v>8002</v>
-      </c>
-      <c r="F129" t="s">
-        <v>884</v>
-      </c>
-      <c r="AP129" s="16" t="s">
-        <v>986</v>
+        <v>868</v>
+      </c>
+      <c r="AP121" s="16">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
